--- a/statistics project/project stat.xlsx
+++ b/statistics project/project stat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03955f145fd12bc1/Desktop/TOPS TECH/statistics project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6A40A0D-8BC7-4CEB-B5B8-CAA827B185E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{B6A40A0D-8BC7-4CEB-B5B8-CAA827B185E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3FF7B69-8BE2-45ED-93F7-27EC58674B05}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2C4FC6F7-3898-42EC-8C88-1584F45F7A32}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{2C4FC6F7-3898-42EC-8C88-1584F45F7A32}"/>
   </bookViews>
   <sheets>
     <sheet name="q1-4" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="51">
   <si>
     <t>Month</t>
   </si>
@@ -98,9 +98,6 @@
     <t xml:space="preserve"> Find the Variance and Standard Deviation of Sales</t>
   </si>
   <si>
-    <t>sdp</t>
-  </si>
-  <si>
     <t>varivance</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>Is there a significant difference between the average sales of North and South regions?</t>
   </si>
   <si>
-    <t>t-Test: Two-Sample Assuming Equal Variances</t>
-  </si>
-  <si>
     <t>Variable 1</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
   </si>
   <si>
     <t>Observations</t>
-  </si>
-  <si>
-    <t>Pooled Variance</t>
   </si>
   <si>
     <t>Hypothesized Mean Difference</t>
@@ -195,6 +186,12 @@
   </si>
   <si>
     <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <t>t-Test: Two-Sample Assuming Unequal Variances</t>
+  </si>
+  <si>
+    <t>sds sales</t>
   </si>
 </sst>
 </file>
@@ -281,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -290,9 +287,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -310,6 +310,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1337,7 +1341,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3108A037-076E-4732-81A1-43DC00D8FFCA}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3108A037-076E-4732-81A1-43DC00D8FFCA}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="2">
     <pivotField axis="axisPage" showAll="0">
@@ -2024,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FCA9B8-4048-4BCE-B6C2-8F0120A6730E}">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2110,11 +2114,11 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4">
-        <f>_xlfn.STDEV.P(D:D)</f>
-        <v>441.20704524633328</v>
+        <f>_xlfn.STDEV.S(D:D)</f>
+        <v>442.31421648589094</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -2134,7 +2138,7 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <f>_xlfn.VAR.P(D:D)</f>
@@ -2178,7 +2182,7 @@
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -2215,7 +2219,7 @@
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9">
         <f>AVERAGE(D:D)</f>
@@ -2239,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H10">
         <f>_xlfn.STDEV.S(D:D)</f>
@@ -2280,7 +2284,7 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12">
         <f>H10/H9*100</f>
@@ -2324,7 +2328,7 @@
         <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -2343,6 +2347,12 @@
       <c r="E15">
         <v>2</v>
       </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <v>442.31</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -2361,7 +2371,7 @@
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H16">
         <f>CORREL(D:D,E:E)</f>
@@ -2405,7 +2415,7 @@
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -2442,7 +2452,7 @@
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H20">
         <f>COUNTA(D2:D1048576)</f>
@@ -2466,7 +2476,7 @@
         <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H21">
         <f>1.96*H10/SQRT(200)</f>
@@ -2507,7 +2517,7 @@
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -2527,7 +2537,7 @@
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <f>H9-H21</f>
@@ -2551,7 +2561,7 @@
         <v>5</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <f>H9+H21</f>
@@ -5557,10 +5567,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E60B0A-C822-4A7B-A344-34DF9B3B0BEB}">
-  <dimension ref="A1:J201"/>
+  <dimension ref="A1:K201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5581,10 +5591,10 @@
       </c>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
         <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -5635,7 +5645,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -5682,11 +5692,8 @@
       <c r="F7" s="3">
         <v>4110</v>
       </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5715,15 +5722,11 @@
       <c r="F9" s="3">
         <v>4158</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -5737,15 +5740,6 @@
       <c r="F10" s="3">
         <v>4192</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="4">
-        <v>4692.3809523809523</v>
-      </c>
-      <c r="J10" s="4">
-        <v>4679.0192307692305</v>
-      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -5761,14 +5755,12 @@
       <c r="F11" s="3">
         <v>4198</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="4">
-        <v>225533.90011614398</v>
-      </c>
-      <c r="J11" s="4">
-        <v>194475.11726998494</v>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -5785,14 +5777,14 @@
       <c r="F12" s="3">
         <v>4204</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="4">
-        <v>42</v>
-      </c>
-      <c r="J12" s="4">
-        <v>52</v>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12">
+        <v>4692.3809523809523</v>
+      </c>
+      <c r="J12">
+        <v>4679.0192307692305</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -5809,13 +5801,15 @@
       <c r="F13" s="3">
         <v>4242</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="4">
-        <v>208316.53136446886</v>
-      </c>
-      <c r="J13" s="4"/>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13">
+        <v>225533.90011614398</v>
+      </c>
+      <c r="J13">
+        <v>194475.11726998494</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -5831,13 +5825,15 @@
       <c r="F14" s="3">
         <v>4257</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4"/>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14">
+        <v>42</v>
+      </c>
+      <c r="J14">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -5853,13 +5849,12 @@
       <c r="F15" s="3">
         <v>4277</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="4">
-        <v>92</v>
-      </c>
-      <c r="J15" s="4"/>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -5875,15 +5870,14 @@
       <c r="F16" s="3">
         <v>4315</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0.14111167322107923</v>
-      </c>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -5897,15 +5891,14 @@
       <c r="F17" s="3">
         <v>4350</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0.44404512252859074</v>
-      </c>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17">
+        <v>0.13999384142126461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -5919,15 +5912,14 @@
       <c r="F18" s="3">
         <v>4387</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="4">
-        <v>1.6615853969032315</v>
-      </c>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18">
+        <v>0.44449802662950172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -5941,15 +5933,14 @@
       <c r="F19" s="3">
         <v>4398</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0.88809024505718148</v>
-      </c>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19">
+        <v>1.6629784997019019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -5963,15 +5954,14 @@
       <c r="F20" s="3">
         <v>4459</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="5">
-        <v>1.9860863169511298</v>
-      </c>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20">
+        <v>0.88899605325900344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -5985,8 +5975,15 @@
       <c r="F21" s="3">
         <v>4462</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1.9882679074772251</v>
+      </c>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -6001,7 +5998,7 @@
         <v>4466</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -6016,7 +6013,7 @@
         <v>4491</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -6031,7 +6028,7 @@
         <v>4617</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -6046,7 +6043,7 @@
         <v>4626</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -6061,7 +6058,7 @@
         <v>4636</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -6076,7 +6073,7 @@
         <v>4641</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -6090,8 +6087,13 @@
       <c r="F28" s="3">
         <v>4652</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -6105,8 +6107,13 @@
       <c r="F29" s="3">
         <v>4708</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G29" s="6"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -6120,8 +6127,13 @@
       <c r="F30" s="3">
         <v>4723</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -6135,8 +6147,13 @@
       <c r="F31" s="3">
         <v>4790</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -6150,8 +6167,13 @@
       <c r="F32" s="3">
         <v>4799</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -6165,8 +6187,13 @@
       <c r="F33" s="3">
         <v>4802</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -6180,8 +6207,13 @@
       <c r="F34" s="3">
         <v>4810</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -6195,8 +6227,13 @@
       <c r="F35" s="3">
         <v>4813</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -6210,8 +6247,13 @@
       <c r="F36" s="3">
         <v>4820</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -6225,8 +6267,13 @@
       <c r="F37" s="3">
         <v>4840</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -6240,8 +6287,13 @@
       <c r="F38" s="3">
         <v>4993</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -6255,8 +6307,13 @@
       <c r="F39" s="3">
         <v>5022</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -6270,8 +6327,13 @@
       <c r="F40" s="3">
         <v>5065</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -6285,8 +6347,13 @@
       <c r="F41" s="3">
         <v>5072</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -6301,7 +6368,7 @@
         <v>5114</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -6316,7 +6383,7 @@
         <v>5142</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -6327,7 +6394,7 @@
         <v>5148</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -6338,7 +6405,7 @@
         <v>5162</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -6349,7 +6416,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -6360,7 +6427,7 @@
         <v>5327</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -6707,7 +6774,7 @@
       </c>
       <c r="D88" s="3"/>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
@@ -7852,7 +7919,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -8117,7 +8184,7 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
